--- a/biology/Biologie cellulaire et moléculaire/FGF21/FGF21.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/FGF21/FGF21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FGF21 est une protéine appartenant à la famille des facteurs de croissances des fibroblastes et ayant une fonction hormonale[5]. Son gène est FGF21 situé sur le chromosome 19 humain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FGF21 est une protéine appartenant à la famille des facteurs de croissances des fibroblastes et ayant une fonction hormonale. Son gène est FGF21 situé sur le chromosome 19 humain.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est exprimée essentiellement dans le foie (où son expression est partiellement stimulée par le PPAR-alpha[6], notamment au cours d'une diète[7]) et les tissus adipeux. Elle intervient dans la cétogenèse et l'oxydation des lipides[8]. Au niveau moléculaire, son action nécessiterait la présence de béta-klotho[9].
-L'administration de FGF21  à des souris obèses ou diabétiques normalise leur glycémie et le taux de triglycérides sanguins[10]. Elle majore leur sensibilité à l'insuline et prévient la formation d'une stéatose hépatique[11]. Elle augmente leur métabolisme énergétique par activation de la graisse brune[12].
-Chez l'Homme, son taux sanguin semble être corrélé avec le taux de lipide ou d'insuline[13]. Il augmente chez le diabétique de type 2 et l'obèse ainsi qu'en cas de diète importante ou de traitement par les fibrates[14].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est exprimée essentiellement dans le foie (où son expression est partiellement stimulée par le PPAR-alpha, notamment au cours d'une diète) et les tissus adipeux. Elle intervient dans la cétogenèse et l'oxydation des lipides. Au niveau moléculaire, son action nécessiterait la présence de béta-klotho.
+L'administration de FGF21  à des souris obèses ou diabétiques normalise leur glycémie et le taux de triglycérides sanguins. Elle majore leur sensibilité à l'insuline et prévient la formation d'une stéatose hépatique. Elle augmente leur métabolisme énergétique par activation de la graisse brune.
+Chez l'Homme, son taux sanguin semble être corrélé avec le taux de lipide ou d'insuline. Il augmente chez le diabétique de type 2 et l'obèse ainsi qu'en cas de diète importante ou de traitement par les fibrates.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Utilisation thérapeutique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un analogue pégylé du FGF21 a été synthétisé et est en cours de test. Il permet d'améliorer certains paramètres au cours d'une stéatose hépatique non alcoolique[15].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un analogue pégylé du FGF21 a été synthétisé et est en cours de test. Il permet d'améliorer certains paramètres au cours d'une stéatose hépatique non alcoolique.
 </t>
         </is>
       </c>
